--- a/Device Interaction/Automation/Relay Switches.xlsx
+++ b/Device Interaction/Automation/Relay Switches.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="11">
   <si>
     <t>Application</t>
   </si>
@@ -53,10 +53,7 @@
     <t>Same app</t>
   </si>
   <si>
-    <t>oom</t>
-  </si>
-  <si>
-    <t>timeout</t>
+    <t>non-terminated</t>
   </si>
   <si>
     <t>detected</t>
@@ -128,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -176,9 +173,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -300,7 +294,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
@@ -329,13 +323,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>7</v>
@@ -358,16 +352,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>7</v>
@@ -375,7 +369,7 @@
     </row>
     <row r="7">
       <c r="D7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" ref="E7:I7" si="1">countif(E$2:E$6, "detected")</f>
@@ -398,13 +392,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" ref="J7:J10" si="3">sum(E7:I7)</f>
+        <f t="shared" ref="J7:J9" si="3">sum(E7:I7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="12">
         <f t="shared" ref="E8:I8" si="2">countif(E$2:E$6, "no error")</f>
@@ -432,12 +426,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" ref="E9:I9" si="4">COUNTIF(E$2:E$6, "oom")</f>
-        <v>1</v>
+        <f t="shared" ref="E9:I9" si="4">COUNTIF(E$2:E$6, "non-terminated")</f>
+        <v>4</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="4"/>
@@ -445,49 +439,29 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="12">
-        <f t="shared" ref="E10:I10" si="5">COUNTIF(E$2:E$6, "timeout")</f>
-        <v>3</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
